--- a/Supports files/resources_category.xlsx
+++ b/Supports files/resources_category.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EA69075-5E49-451C-A2C1-002AA288930A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB49CCF-2FFC-4905-9E7F-BCD089575A3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7680" tabRatio="634" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>si</t>
   </si>
@@ -32,23 +32,38 @@
     <t>මුද්‍රිත</t>
   </si>
   <si>
-    <t>මුද්‍රිත නොවන</t>
-  </si>
-  <si>
-    <t>Printed</t>
-  </si>
-  <si>
-    <t>NonPrinted</t>
-  </si>
-  <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>Print</t>
+  </si>
+  <si>
+    <t>Electronic</t>
+  </si>
+  <si>
+    <t>Audio/Video</t>
+  </si>
+  <si>
+    <t>ශ්‍රව්‍ය දුශ්‍ය</t>
+  </si>
+  <si>
+    <t>அச்சிடுக</t>
+  </si>
+  <si>
+    <t>ஆடியோ / வீடியோ</t>
+  </si>
+  <si>
+    <t>மின்னணு</t>
+  </si>
+  <si>
+    <t>ඉලෙක්ට්‍රොනික</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,9 +75,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Iskoola Pota"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Iskoola Pota"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -85,9 +105,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,19 +475,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985DC7FA-FF2D-4D74-9933-E899409665F3}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="15.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -479,24 +505,44 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Supports files/resources_category.xlsx
+++ b/Supports files/resources_category.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20368"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB49CCF-2FFC-4905-9E7F-BCD089575A3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59B606F-0B48-4BBE-B4AC-DFF024383A08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7680" tabRatio="634" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>si</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>ඉලෙක්ට්‍රොනික</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>category_default.png</t>
   </si>
 </sst>
 </file>
@@ -475,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985DC7FA-FF2D-4D74-9933-E899409665F3}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,10 +493,11 @@
     <col min="2" max="2" width="15.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="21.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="12" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -503,8 +510,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -517,8 +527,11 @@
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -531,8 +544,11 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -544,6 +560,9 @@
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
